--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2440451.249868264</v>
+        <v>2438563.668351862</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>5.791117132838792</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>139.3733281349268</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>168.8457406638651</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>128.0537032279749</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>123.2264323245079</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>98.00807076326763</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249387</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>117.7873989665796</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.63869417193551</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>17.29855725687385</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433773</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151928</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>58.19095390327369</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>12.78917898910614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.322702126631373</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>43.67351014081571</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523589</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857213</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463075</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2001.758776122685</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1632.796259182274</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1274.530560575523</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>888.7423079772789</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>477.7564031876713</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>59.79259508585818</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.358616186807</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>363.7239216122612</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>363.7239216122612</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>363.7239216122612</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>194.7241213505936</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2471.569148352892</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2471.569148352892</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2118.800493082778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1745.334734821698</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2901567981169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>183.2901567981169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>183.2901567981169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>185.3596263316971</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3596263316971</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4141255824937</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4884,7 +4884,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>346.6331511883706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,7 +5264,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662453</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>496.665036439558</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.665036439558</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271018</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271018</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147661</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271018</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>226.2249729967968</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>226.2249729967968</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>226.2249729967968</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>450.0103882072906</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>281.0742052793837</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>281.0742052793837</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>133.1611116969906</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>133.1611116969906</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011504</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>670.8029673508207</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>450.0103882072906</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,13 +6239,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726215</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726215</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609671</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550802</v>
+        <v>985.5330309511298</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181197</v>
+        <v>696.1158609141692</v>
       </c>
       <c r="X28" t="n">
-        <v>428.9821957028612</v>
+        <v>468.1263100161518</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.9821957028612</v>
+        <v>247.3337308726217</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6467,7 +6467,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542153</v>
+        <v>439.5324299542176</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542153</v>
+        <v>434.1559631596405</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542153</v>
+        <v>339.8001890286755</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463206</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297809</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="G31" t="n">
-        <v>191.874234630972</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818906</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652438</v>
+        <v>730.4517433652459</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030844</v>
+        <v>565.4200295030865</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,10 +6701,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,22 +6713,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6850,7 +6850,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003442</v>
@@ -6923,31 +6923,31 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,10 +7117,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265285</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483982</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7579,7 +7579,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,7 +7743,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>272.8719470256802</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703344</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665547</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>48.42589188330154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165233</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.04458121535766</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560061</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>131.3169157613385</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>130.9089884290399</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338446</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>163.3566071551156</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>212.920476399931</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>106.7208623434394</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>47.55719587719658</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.755396159656812e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585985</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855372.1954540986</v>
+        <v>855372.1954540989</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196775</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196773</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506411</v>
+        <v>589892.0991506412</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="M2" t="n">
         <v>595255.2831516047</v>
@@ -26353,7 +26353,7 @@
         <v>595255.2831516049</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
     </row>
     <row r="3">
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.166300419048639e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284546</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086703</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,19 +26439,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106718</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819113</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128735</v>
+        <v>-243204.5419128736</v>
       </c>
       <c r="C6" t="n">
+        <v>346763.3373016709</v>
+      </c>
+      <c r="D6" t="n">
         <v>346763.3373016708</v>
       </c>
-      <c r="D6" t="n">
-        <v>346763.337301671</v>
-      </c>
       <c r="E6" t="n">
-        <v>-72329.83339280594</v>
+        <v>-72427.29251877789</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840904</v>
+        <v>452732.7439581181</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840905</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840904</v>
+        <v>452732.7439581181</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840901</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914972</v>
+        <v>276309.5247655248</v>
       </c>
       <c r="K6" t="n">
-        <v>408762.0552165057</v>
+        <v>408743.5614785713</v>
       </c>
       <c r="L6" t="n">
-        <v>442603.8757025209</v>
+        <v>442603.8757025214</v>
       </c>
       <c r="M6" t="n">
-        <v>318145.7672695508</v>
+        <v>318145.7672695509</v>
       </c>
       <c r="N6" t="n">
-        <v>452946.7825033882</v>
+        <v>452946.7825033883</v>
       </c>
       <c r="O6" t="n">
         <v>452946.7825033884</v>
       </c>
       <c r="P6" t="n">
-        <v>408784.1772005428</v>
+        <v>408784.1772005424</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855682</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855682</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>318.1316556315184</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79756070686832</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>23.75498498155895</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.37842684442415</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>28.11718561382025</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>290.5577376962871</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,22 +28561,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,13 +29287,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>397.3927609030887</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>522.1296519817046</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>630.5822970683473</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
